--- a/pearson_tables/tp_netherlands_cumul-1-1.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-1.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6401169905019021</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7801491881701574</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7039689830244796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8566923639395128</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6217131786044643</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7059102404572599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8641594507218792</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6812849452247205</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.654837660569782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8162380687534135</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5760212008600279</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6541153165737161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7247451429108068</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5885601366017159</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6048199707996601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5259104508997071</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6476471740021246</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7070035272437657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5616513349507455</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7510343600341965</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7387470089997923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5130693816519355</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7269038620281134</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6479222052735244</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
